--- a/examples/Excel/orflib-0.8.0-examples.xlsx
+++ b/examples/Excel/orflib-0.8.0-examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michalis\Documents\Develop\ORF531-F2018\orflib\examples\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01731A4-14A7-43CE-9E2D-1C4DDE9DCE50}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E066C838-C515-4668-B13C-06A23B4B06FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15135" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,7 +928,7 @@
       </c>
       <c r="B2" s="17" t="str">
         <f ca="1">_xll.ORF.VERSION()</f>
-        <v>0.8.0-debug</v>
+        <v>0.8.0-sol-debug</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -962,7 +962,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f ca="1">_xll.ORF.YCCREATE($B$4, A7:A15, B7:B15,$B$5)</f>
-        <v>USD¤3</v>
+        <v>USD¤2</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="array" aca="1" ref="H6:I8" ca="1">_xll.ORF.MKTLIST()</f>
